--- a/TestDir/DPD Variable Import Test.xlsx
+++ b/TestDir/DPD Variable Import Test.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nishi\OneDrive\eCourses\Packt\Section 5\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="33" documentId="13_ncr:1_{07694ED7-68DF-4EBA-924A-61C49BA4C6F6}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{EC58C453-2CD6-4385-B97A-DBF0F5FCE425}"/>
+  <xr:revisionPtr revIDLastSave="35" documentId="13_ncr:1_{07694ED7-68DF-4EBA-924A-61C49BA4C6F6}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{29A939B5-A916-4F95-9269-7C9A187024AD}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="1575" windowWidth="29040" windowHeight="15840" firstSheet="6" activeTab="11" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -58,7 +58,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1230" uniqueCount="354">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1230" uniqueCount="355">
   <si>
     <t>General Information Item</t>
   </si>
@@ -1120,6 +1120,9 @@
   </si>
   <si>
     <t>DPD_Var_10</t>
+  </si>
+  <si>
+    <t>No</t>
   </si>
 </sst>
 </file>
@@ -1593,7 +1596,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E15" sqref="E15"/>
+      <selection pane="bottomLeft" activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1765,7 +1768,7 @@
         <v>340</v>
       </c>
       <c r="C10" t="s">
-        <v>342</v>
+        <v>354</v>
       </c>
       <c r="D10" t="s">
         <v>343</v>
@@ -1782,7 +1785,7 @@
         <v>341</v>
       </c>
       <c r="C11" t="s">
-        <v>342</v>
+        <v>354</v>
       </c>
       <c r="D11" t="s">
         <v>343</v>

--- a/TestDir/DPD Variable Import Test.xlsx
+++ b/TestDir/DPD Variable Import Test.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nishi\OneDrive\eCourses\Packt\Section 5\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="35" documentId="13_ncr:1_{07694ED7-68DF-4EBA-924A-61C49BA4C6F6}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{29A939B5-A916-4F95-9269-7C9A187024AD}"/>
+  <xr:revisionPtr revIDLastSave="40" documentId="13_ncr:1_{07694ED7-68DF-4EBA-924A-61C49BA4C6F6}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{197E6D71-5CDB-4122-BB79-7912EB0FDEB8}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="1575" windowWidth="29040" windowHeight="15840" firstSheet="6" activeTab="11" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1122,7 +1122,7 @@
     <t>DPD_Var_10</t>
   </si>
   <si>
-    <t>No</t>
+    <t>QVS</t>
   </si>
 </sst>
 </file>
@@ -1596,7 +1596,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C12" sqref="C12"/>
+      <selection pane="bottomLeft" activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1768,10 +1768,10 @@
         <v>340</v>
       </c>
       <c r="C10" t="s">
+        <v>342</v>
+      </c>
+      <c r="D10" t="s">
         <v>354</v>
-      </c>
-      <c r="D10" t="s">
-        <v>343</v>
       </c>
       <c r="E10" t="s">
         <v>352</v>
@@ -1785,10 +1785,10 @@
         <v>341</v>
       </c>
       <c r="C11" t="s">
+        <v>342</v>
+      </c>
+      <c r="D11" t="s">
         <v>354</v>
-      </c>
-      <c r="D11" t="s">
-        <v>343</v>
       </c>
       <c r="E11" t="s">
         <v>353</v>

--- a/TestDir/DPD Variable Import Test.xlsx
+++ b/TestDir/DPD Variable Import Test.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nishi\OneDrive\eCourses\Packt\Section 5\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="40" documentId="13_ncr:1_{07694ED7-68DF-4EBA-924A-61C49BA4C6F6}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{197E6D71-5CDB-4122-BB79-7912EB0FDEB8}"/>
+  <xr:revisionPtr revIDLastSave="44" documentId="13_ncr:1_{07694ED7-68DF-4EBA-924A-61C49BA4C6F6}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{A173F179-AEA3-4D03-9137-057205794B17}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="1575" windowWidth="29040" windowHeight="15840" firstSheet="6" activeTab="11" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -58,7 +58,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1230" uniqueCount="355">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1202" uniqueCount="337">
   <si>
     <t>General Information Item</t>
   </si>
@@ -1041,21 +1041,6 @@
     <t>vTest5</t>
   </si>
   <si>
-    <t>vTest6</t>
-  </si>
-  <si>
-    <t>vTest7</t>
-  </si>
-  <si>
-    <t>vTest8</t>
-  </si>
-  <si>
-    <t>vTest9</t>
-  </si>
-  <si>
-    <t>vTest10</t>
-  </si>
-  <si>
     <t>Variable Import Test 1</t>
   </si>
   <si>
@@ -1071,55 +1056,16 @@
     <t>Variable Import Test 5</t>
   </si>
   <si>
-    <t>Variable Import Test 6</t>
-  </si>
-  <si>
-    <t>Variable Import Test 7</t>
-  </si>
-  <si>
-    <t>Variable Import Test 8</t>
-  </si>
-  <si>
-    <t>Variable Import Test 9</t>
-  </si>
-  <si>
-    <t>Variable Import Test 10</t>
-  </si>
-  <si>
     <t>Yes</t>
   </si>
   <si>
     <t>DPD</t>
   </si>
   <si>
-    <t>DPD_Var_1</t>
-  </si>
-  <si>
-    <t>DPD_Var_2</t>
-  </si>
-  <si>
-    <t>DPD_Var_3</t>
-  </si>
-  <si>
     <t>DPD_Var_4</t>
   </si>
   <si>
     <t>DPD_Var_5</t>
-  </si>
-  <si>
-    <t>DPD_Var_6</t>
-  </si>
-  <si>
-    <t>DPD_Var_7</t>
-  </si>
-  <si>
-    <t>DPD_Var_8</t>
-  </si>
-  <si>
-    <t>DPD_Var_9</t>
-  </si>
-  <si>
-    <t>DPD_Var_10</t>
   </si>
   <si>
     <t>QVS</t>
@@ -1592,11 +1538,11 @@
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
-  <dimension ref="A1:E11"/>
+  <dimension ref="A1:E6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D12" sqref="D12"/>
+      <selection pane="bottomLeft" activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1629,16 +1575,13 @@
         <v>322</v>
       </c>
       <c r="B2" t="s">
+        <v>327</v>
+      </c>
+      <c r="C2" t="s">
         <v>332</v>
       </c>
-      <c r="C2" t="s">
-        <v>342</v>
-      </c>
       <c r="D2" t="s">
-        <v>343</v>
-      </c>
-      <c r="E2" t="s">
-        <v>344</v>
+        <v>336</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
@@ -1646,16 +1589,13 @@
         <v>323</v>
       </c>
       <c r="B3" t="s">
-        <v>333</v>
+        <v>328</v>
       </c>
       <c r="C3" t="s">
-        <v>342</v>
+        <v>332</v>
       </c>
       <c r="D3" t="s">
-        <v>343</v>
-      </c>
-      <c r="E3" t="s">
-        <v>345</v>
+        <v>336</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
@@ -1663,16 +1603,13 @@
         <v>324</v>
       </c>
       <c r="B4" t="s">
-        <v>334</v>
+        <v>329</v>
       </c>
       <c r="C4" t="s">
-        <v>342</v>
+        <v>332</v>
       </c>
       <c r="D4" t="s">
-        <v>343</v>
-      </c>
-      <c r="E4" t="s">
-        <v>346</v>
+        <v>336</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
@@ -1680,16 +1617,16 @@
         <v>325</v>
       </c>
       <c r="B5" t="s">
-        <v>335</v>
+        <v>330</v>
       </c>
       <c r="C5" t="s">
-        <v>342</v>
+        <v>332</v>
       </c>
       <c r="D5" t="s">
-        <v>343</v>
+        <v>333</v>
       </c>
       <c r="E5" t="s">
-        <v>347</v>
+        <v>334</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
@@ -1697,101 +1634,16 @@
         <v>326</v>
       </c>
       <c r="B6" t="s">
-        <v>336</v>
+        <v>331</v>
       </c>
       <c r="C6" t="s">
-        <v>342</v>
+        <v>332</v>
       </c>
       <c r="D6" t="s">
-        <v>343</v>
+        <v>333</v>
       </c>
       <c r="E6" t="s">
-        <v>348</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>327</v>
-      </c>
-      <c r="B7" t="s">
-        <v>337</v>
-      </c>
-      <c r="C7" t="s">
-        <v>342</v>
-      </c>
-      <c r="D7" t="s">
-        <v>343</v>
-      </c>
-      <c r="E7" t="s">
-        <v>349</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>328</v>
-      </c>
-      <c r="B8" t="s">
-        <v>338</v>
-      </c>
-      <c r="C8" t="s">
-        <v>342</v>
-      </c>
-      <c r="D8" t="s">
-        <v>343</v>
-      </c>
-      <c r="E8" t="s">
-        <v>350</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>329</v>
-      </c>
-      <c r="B9" t="s">
-        <v>339</v>
-      </c>
-      <c r="C9" t="s">
-        <v>342</v>
-      </c>
-      <c r="D9" t="s">
-        <v>343</v>
-      </c>
-      <c r="E9" t="s">
-        <v>351</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>330</v>
-      </c>
-      <c r="B10" t="s">
-        <v>340</v>
-      </c>
-      <c r="C10" t="s">
-        <v>342</v>
-      </c>
-      <c r="D10" t="s">
-        <v>354</v>
-      </c>
-      <c r="E10" t="s">
-        <v>352</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>331</v>
-      </c>
-      <c r="B11" t="s">
-        <v>341</v>
-      </c>
-      <c r="C11" t="s">
-        <v>342</v>
-      </c>
-      <c r="D11" t="s">
-        <v>354</v>
-      </c>
-      <c r="E11" t="s">
-        <v>353</v>
+        <v>335</v>
       </c>
     </row>
   </sheetData>
